--- a/data/trans_camb/Q23_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Clase-trans_camb.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,41</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,12</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 7,98</t>
+          <t>-8,82; 8,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 37,94</t>
+          <t>-9,49; 8,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 8,68</t>
+          <t>-8,84; 8,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 14,9</t>
+          <t>-4,03; 14,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 55,19</t>
+          <t>-4,34; 16,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 12,15</t>
+          <t>-5,15; 11,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 8,05</t>
+          <t>-5,22; 7,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 34,16</t>
+          <t>-4,93; 8,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 7,81</t>
+          <t>-5,37; 7,46</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>-2,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>120,55%</t>
+          <t>42,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,89%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,32; 41,75</t>
+          <t>-32,41; 44,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-67,83; 181,25</t>
+          <t>-34,11; 46,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,19; 43,79</t>
+          <t>-30,88; 45,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 129,98</t>
+          <t>-22,57; 133,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,17; 436,75</t>
+          <t>-22,67; 138,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 109,24</t>
+          <t>-25,38; 113,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 43,06</t>
+          <t>-21,76; 43,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 172,23</t>
+          <t>-20,66; 43,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 41,96</t>
+          <t>-21,46; 39,92</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,88</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,18</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,29</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 8,76</t>
+          <t>-10,75; 8,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 49,58</t>
+          <t>-2,89; 17,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 11,16</t>
+          <t>-7,48; 12,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 9,98</t>
+          <t>-9,52; 10,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 15,24</t>
+          <t>-14,43; 4,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 9,95</t>
+          <t>-9,07; 10,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 7,0</t>
+          <t>-6,93; 6,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 34,3</t>
+          <t>-6,05; 7,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 8,14</t>
+          <t>-5,75; 8,3</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>100,36%</t>
+          <t>24,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-62,58%</t>
+          <t>-19,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,14%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,24; 39,11</t>
+          <t>-31,56; 38,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,73; 201,92</t>
+          <t>-8,82; 76,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 46,76</t>
+          <t>-23,33; 53,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,46; 47,71</t>
+          <t>-30,89; 46,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 103,48</t>
+          <t>-48,0; 24,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 49,85</t>
+          <t>-29,89; 48,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,48; 30,1</t>
+          <t>-22,73; 26,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 136,92</t>
+          <t>-20,1; 33,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 34,7</t>
+          <t>-19,22; 34,71</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,18</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>51,96</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>26,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 10,34</t>
+          <t>-3,67; 11,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 40,8</t>
+          <t>-3,0; 11,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 6,8</t>
+          <t>-32,05; 6,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 10,43</t>
+          <t>-14,3; 9,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 82,54</t>
+          <t>-10,27; 19,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 16,26</t>
+          <t>-12,38; 16,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 8,34</t>
+          <t>-4,6; 8,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,93; 40,83</t>
+          <t>-2,24; 11,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-28,8; 5,43</t>
+          <t>-30,24; 5,74</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>64,36%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>234,78%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>80,25%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 33,8</t>
+          <t>-9,59; 39,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,54; 124,64</t>
+          <t>-8,17; 39,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,72; 20,83</t>
+          <t>-83,76; 18,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-51,16; 73,3</t>
+          <t>-48,69; 66,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 525,81</t>
+          <t>-36,01; 141,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,63; 114,62</t>
+          <t>-43,0; 115,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 29,27</t>
+          <t>-12,6; 28,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,38; 134,2</t>
+          <t>-6,45; 39,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-84,65; 16,64</t>
+          <t>-84,1; 17,66</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,89</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>27,12</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,22</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 7,62</t>
+          <t>-2,31; 7,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 24,78</t>
+          <t>-5,8; 4,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 3,79</t>
+          <t>-7,96; 3,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 7,23</t>
+          <t>-7,11; 6,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 48,72</t>
+          <t>-10,14; 2,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 5,13</t>
+          <t>-8,46; 4,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 5,31</t>
+          <t>-2,64; 5,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 26,69</t>
+          <t>-6,87; 1,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 1,55</t>
+          <t>-7,42; 1,47</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>28,88%</t>
+          <t>-1,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>-12,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>-7,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 20,97</t>
+          <t>-5,95; 21,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 66,97</t>
+          <t>-14,11; 12,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,78; 10,2</t>
+          <t>-19,87; 9,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 29,98</t>
+          <t>-22,09; 26,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,25; 184,64</t>
+          <t>-31,89; 12,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 21,5</t>
+          <t>-26,49; 20,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 15,95</t>
+          <t>-7,41; 16,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,98; 76,59</t>
+          <t>-18,4; 4,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 4,7</t>
+          <t>-20,06; 4,44</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>38,83</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>18,04</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 2,5</t>
+          <t>-14,35; 3,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 24,38</t>
+          <t>-14,61; 2,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 4,94</t>
+          <t>-13,73; 4,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 6,26</t>
+          <t>-11,06; 6,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,64; 60,07</t>
+          <t>-7,23; 10,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,86; -0,39</t>
+          <t>-16,97; -0,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 1,27</t>
+          <t>-10,05; 2,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,11; 31,74</t>
+          <t>-8,55; 3,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,2; -0,44</t>
+          <t>-13,37; -0,11</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>-12,66%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>120,23%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 6,07</t>
+          <t>-29,61; 7,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 57,65</t>
+          <t>-29,03; 6,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,24; 12,35</t>
+          <t>-28,01; 12,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 24,44</t>
+          <t>-28,86; 25,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,25; 207,35</t>
+          <t>-19,95; 36,83</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-44,73; -1,32</t>
+          <t>-45,44; -0,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 3,5</t>
+          <t>-23,77; 6,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,2; 82,7</t>
+          <t>-20,2; 11,11</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,89; -0,97</t>
+          <t>-31,05; -0,13</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-9,67</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>9,52</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 11,9</t>
+          <t>-19,03; 11,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 22,04</t>
+          <t>-24,56; 5,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 15,73</t>
+          <t>-39,44; 15,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 15,59</t>
+          <t>-2,14; 15,74</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 36,25</t>
+          <t>-13,11; 4,53</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-19,3; -1,95</t>
+          <t>-19,82; -1,75</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 11,13</t>
+          <t>-4,33; 11,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 28,2</t>
+          <t>-13,94; 0,82</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-22,22; -3,69</t>
+          <t>-22,86; -4,68</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>-19,76%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>-15,19%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 28,2</t>
+          <t>-34,84; 28,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-47,22; 53,15</t>
+          <t>-44,88; 13,01</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-79,44; 40,8</t>
+          <t>-76,37; 37,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 62,91</t>
+          <t>-6,63; 65,12</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-55,24; 141,98</t>
+          <t>-39,6; 18,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-59,96; -6,84</t>
+          <t>-60,13; -5,03</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 36,03</t>
+          <t>-11,42; 36,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 88,6</t>
+          <t>-35,88; 2,88</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-59,64; -10,91</t>
+          <t>-62,38; -14,52</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>14,42</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>18,68</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>16,44</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 3,98</t>
+          <t>-2,67; 3,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,8; 21,67</t>
+          <t>-2,88; 3,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-17,85; -0,29</t>
+          <t>-18,6; -0,49</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 5,09</t>
+          <t>-2,57; 4,9</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,61; 29,82</t>
+          <t>-4,79; 2,83</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,41</t>
+          <t>-7,11; 0,44</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 3,1</t>
+          <t>-1,84; 2,99</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>10,09; 22,68</t>
+          <t>-3,13; 1,81</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-13,44; -1,83</t>
+          <t>-13,12; -1,92</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>69,3%</t>
+          <t>-3,52%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>50,4%</t>
+          <t>-1,75%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 11,53</t>
+          <t>-7,12; 10,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>19,31; 62,08</t>
+          <t>-7,8; 10,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-51,89; -0,86</t>
+          <t>-50,66; -1,41</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 20,6</t>
+          <t>-8,87; 19,57</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>25,58; 117,18</t>
+          <t>-16,52; 11,52</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 1,75</t>
+          <t>-24,07; 1,87</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 9,98</t>
+          <t>-5,41; 9,37</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>30,79; 71,2</t>
+          <t>-9,16; 5,8</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-42,5; -5,87</t>
+          <t>-39,85; -5,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Clase-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,21 +531,18 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +559,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -642,37 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
           <t>1,9</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -695,37 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 8,99</t>
+          <t>-4,03; 14,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 14,24</t>
+          <t>-4,34; 16,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 16,02</t>
+          <t>-5,22; 7,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 11,79</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 7,94</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
           <t>-4,93; 8,16</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-5,37; 7,46</t>
         </is>
       </c>
     </row>
@@ -748,37 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>32,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>42,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,69%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,88%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
           <t>8,85%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,09%</t>
         </is>
       </c>
     </row>
@@ -801,37 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 45,96</t>
+          <t>-22,57; 133,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,57; 133,04</t>
+          <t>-22,67; 138,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 138,38</t>
+          <t>-21,76; 43,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 113,16</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-21,76; 43,82</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
           <t>-20,66; 43,2</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-21,46; 39,92</t>
         </is>
       </c>
     </row>
@@ -858,37 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
           <t>1,1</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
         </is>
       </c>
     </row>
@@ -911,37 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 12,45</t>
+          <t>-9,52; 10,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 10,15</t>
+          <t>-14,43; 4,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 4,93</t>
+          <t>-6,93; 6,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 10,03</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-6,93; 6,29</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
           <t>-6,05; 7,99</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-5,75; 8,3</t>
         </is>
       </c>
     </row>
@@ -964,37 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>-19,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-19,37%</t>
+          <t>-0,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,66%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
           <t>4,08%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4,83%</t>
         </is>
       </c>
     </row>
@@ -1017,37 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 53,59</t>
+          <t>-30,89; 46,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 46,91</t>
+          <t>-48,0; 24,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 24,43</t>
+          <t>-22,73; 26,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,89; 48,84</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-22,73; 26,9</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
           <t>-20,1; 33,55</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-19,22; 34,71</t>
         </is>
       </c>
     </row>
@@ -1074,37 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-16,61</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
           <t>4,32</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-13,97</t>
         </is>
       </c>
     </row>
@@ -1127,37 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-32,05; 6,12</t>
+          <t>-14,3; 9,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 9,44</t>
+          <t>-10,27; 19,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 19,39</t>
+          <t>-4,6; 8,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 16,73</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 8,4</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
           <t>-2,24; 11,35</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-30,24; 5,74</t>
         </is>
       </c>
     </row>
@@ -1180,37 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-48,19%</t>
+          <t>-9,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,24%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>5,77%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
           <t>13,34%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-43,12%</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,76; 18,42</t>
+          <t>-48,69; 66,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,69; 66,88</t>
+          <t>-36,01; 141,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,01; 141,94</t>
+          <t>-12,6; 28,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,0; 115,71</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-12,6; 28,43</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
           <t>-6,45; 39,87</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-84,1; 17,66</t>
         </is>
       </c>
     </row>
@@ -1290,37 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
           <t>-2,62</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-2,73</t>
         </is>
       </c>
     </row>
@@ -1343,37 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 3,59</t>
+          <t>-7,11; 6,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 6,87</t>
+          <t>-10,14; 2,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 2,94</t>
+          <t>-2,64; 5,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 4,63</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 5,58</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
           <t>-6,87; 1,65</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>-7,42; 1,47</t>
         </is>
       </c>
     </row>
@@ -1396,37 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>-12,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-12,26%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-6,56%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>4,26%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
           <t>-7,46%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>-7,79%</t>
         </is>
       </c>
     </row>
@@ -1449,37 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 9,87</t>
+          <t>-22,09; 26,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 26,95</t>
+          <t>-31,89; 12,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,89; 12,07</t>
+          <t>-7,41; 16,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 20,07</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>-7,41; 16,64</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
           <t>-18,4; 4,98</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>-20,06; 4,44</t>
         </is>
       </c>
     </row>
@@ -1506,37 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,9</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-8,11</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-3,92</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
           <t>-2,4</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-6,62</t>
         </is>
       </c>
     </row>
@@ -1559,37 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 4,85</t>
+          <t>-11,06; 6,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 6,68</t>
+          <t>-7,23; 10,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 10,19</t>
+          <t>-10,05; 2,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -0,04</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 2,19</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
           <t>-8,55; 3,95</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-13,37; -0,11</t>
         </is>
       </c>
     </row>
@@ -1612,37 +1311,22 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-10,8%</t>
+          <t>-5,76%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-5,76%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>-9,97%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-25,12%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-9,97%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
           <t>-6,11%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-16,84%</t>
         </is>
       </c>
     </row>
@@ -1665,44 +1349,29 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 12,39</t>
+          <t>-28,86; 25,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 25,62</t>
+          <t>-19,95; 36,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 36,83</t>
+          <t>-23,77; 6,18</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-45,44; -0,15</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-23,77; 6,18</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
           <t>-20,2; 11,11</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-31,05; -0,13</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1722,37 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-19,75</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-10,7</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
           <t>-6,14</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-13,99</t>
         </is>
       </c>
     </row>
@@ -1775,37 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-39,44; 15,46</t>
+          <t>-2,14; 15,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 15,74</t>
+          <t>-13,11; 4,53</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 4,53</t>
+          <t>-4,33; 11,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-19,82; -1,75</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 11,05</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
           <t>-13,94; 0,82</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-22,86; -4,68</t>
         </is>
       </c>
     </row>
@@ -1828,37 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-40,35%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>-15,19%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-15,19%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-37,3%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>9,45%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
           <t>-17,81%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-40,6%</t>
         </is>
       </c>
     </row>
@@ -1881,37 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-76,37; 37,72</t>
+          <t>-6,63; 65,12</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 65,12</t>
+          <t>-39,6; 18,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-39,6; 18,3</t>
+          <t>-11,42; 36,35</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-60,13; -5,03</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-11,42; 36,35</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
           <t>-35,88; 2,88</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-62,38; -14,52</t>
         </is>
       </c>
     </row>
@@ -1938,37 +1547,22 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-6,7</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
           <t>-0,57</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>-5,43</t>
         </is>
       </c>
     </row>
@@ -1991,37 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-18,6; -0,49</t>
+          <t>-2,57; 4,9</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 4,9</t>
+          <t>-4,79; 2,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 2,83</t>
+          <t>-1,84; 2,99</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 0,44</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 2,99</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
           <t>-3,13; 1,81</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>-13,12; -1,92</t>
         </is>
       </c>
     </row>
@@ -2044,37 +1623,22 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-18,67%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>-3,52%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-3,52%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-11,98%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
           <t>-1,75%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>-16,65%</t>
         </is>
       </c>
     </row>
@@ -2097,37 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-50,66; -1,41</t>
+          <t>-8,87; 19,57</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 19,57</t>
+          <t>-16,52; 11,52</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 11,52</t>
+          <t>-5,41; 9,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 1,87</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; 9,37</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
           <t>-9,16; 5,8</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-39,85; -5,87</t>
         </is>
       </c>
     </row>
@@ -2141,11 +1690,11 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
